--- a/Resources/Vale Exits.xlsx
+++ b/Resources/Vale Exits.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lGurley\Source\Repos\RotS-Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jmc\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="416">
   <si>
     <t>Room Name</t>
   </si>
@@ -1598,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J199"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,7 +6089,7 @@
         <v>#sub {%0 %1- Muddy Path} {%0 %1- Muddy Path -  Room Exits: N S W  Front: wwww  Back: None}</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" ref="J131:J194" si="22">A131&amp;"|Front:"&amp;D131&amp;"|Back:"&amp;E131</f>
+        <f t="shared" ref="J131:J193" si="22">A131&amp;"|Front:"&amp;D131&amp;"|Back:"&amp;E131</f>
         <v>Muddy Path|Front:wwww|Back:</v>
       </c>
     </row>
@@ -7133,11 +7133,11 @@
         <v>237</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" ref="F162:F193" si="24">CONCATENATE(A162,"%0Exits are: ",C162)</f>
+        <f t="shared" ref="F162:F192" si="24">CONCATENATE(A162,"%0Exits are: ",C162)</f>
         <v>Silent Trees%0Exits are: E S</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" ref="G162:G193" si="25">CONCATENATE(A162, " -  Room Exits: ", C162, "  Front: ", IF(D162="", "None", D162), "  Back: ", IF(E162="", "None", E162))</f>
+        <f t="shared" ref="G162:G192" si="25">CONCATENATE(A162, " -  Room Exits: ", C162, "  Front: ", IF(D162="", "None", D162), "  Back: ", IF(E162="", "None", E162))</f>
         <v>Silent Trees -  Room Exits: E S  Front: snnnw  Back: None</v>
       </c>
       <c r="H162" t="str">
@@ -7145,7 +7145,7 @@
         <v>#sub {Silent Trees%0Exits are: E S} {Silent Trees -  Room Exits: E S  Front: snnnw  Back: None}</v>
       </c>
       <c r="I162" t="str">
-        <f t="shared" ref="I162:I193" si="26">CONCATENATE("#sub {%0 %1- ",A162,"} {%0 %1- ",G162, "}")</f>
+        <f t="shared" ref="I162:I192" si="26">CONCATENATE("#sub {%0 %1- ",A162,"} {%0 %1- ",G162, "}")</f>
         <v>#sub {%0 %1- Silent Trees} {%0 %1- Silent Trees -  Room Exits: E S  Front: snnnw  Back: None}</v>
       </c>
       <c r="J162" t="str">
@@ -7314,7 +7314,7 @@
         <v>Solid Ground Once Again -  Room Exits: N E S  Front: nnewennw  Back: None</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" ref="H167:H198" si="27">CONCATENATE("#sub {", F167, "} {", G167, "}")</f>
+        <f t="shared" ref="H167:H197" si="27">CONCATENATE("#sub {", F167, "} {", G167, "}")</f>
         <v>#sub {Solid Ground Once Again%0Exits are: N E S} {Solid Ground Once Again -  Room Exits: N E S  Front: nnewennw  Back: None}</v>
       </c>
       <c r="I167" t="str">
@@ -7807,143 +7807,143 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="B182" t="s">
         <v>269</v>
       </c>
       <c r="C182" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="24"/>
-        <v>The Great Pine%0Exits are: N E W</v>
+        <v>The Ground Grows Soft%0Exits are: N W</v>
       </c>
       <c r="G182" t="str">
         <f t="shared" si="25"/>
-        <v>The Great Pine -  Room Exits: N E W  Front: esnww  Back: None</v>
+        <v>The Ground Grows Soft -  Room Exits: N W  Front: nnnenw  Back: None</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {The Great Pine%0Exits are: N E W} {The Great Pine -  Room Exits: N E W  Front: esnww  Back: None}</v>
+        <v>#sub {The Ground Grows Soft%0Exits are: N W} {The Ground Grows Soft -  Room Exits: N W  Front: nnnenw  Back: None}</v>
       </c>
       <c r="I182" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- The Great Pine} {%0 %1- The Great Pine -  Room Exits: N E W  Front: esnww  Back: None}</v>
+        <v>#sub {%0 %1- The Ground Grows Soft} {%0 %1- The Ground Grows Soft -  Room Exits: N W  Front: nnnenw  Back: None}</v>
       </c>
       <c r="J182" t="str">
         <f t="shared" si="22"/>
-        <v>The Great Pine|Front:esnww|Back:</v>
+        <v>The Ground Grows Soft|Front:nnnenw|Back:</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="B183" t="s">
         <v>269</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
-        <v>403</v>
+        <v>97</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="24"/>
-        <v>The Ground Grows Soft%0Exits are: N W</v>
+        <v>The Path%0Exits are: N S W</v>
       </c>
       <c r="G183" t="str">
         <f t="shared" si="25"/>
-        <v>The Ground Grows Soft -  Room Exits: N W  Front: nnnenw  Back: None</v>
+        <v>The Path -  Room Exits: N S W  Front: wnwenw  Back: None</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {The Ground Grows Soft%0Exits are: N W} {The Ground Grows Soft -  Room Exits: N W  Front: nnnenw  Back: None}</v>
+        <v>#sub {The Path%0Exits are: N S W} {The Path -  Room Exits: N S W  Front: wnwenw  Back: None}</v>
       </c>
       <c r="I183" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- The Ground Grows Soft} {%0 %1- The Ground Grows Soft -  Room Exits: N W  Front: nnnenw  Back: None}</v>
+        <v>#sub {%0 %1- The Path} {%0 %1- The Path -  Room Exits: N S W  Front: wnwenw  Back: None}</v>
       </c>
       <c r="J183" t="str">
         <f t="shared" si="22"/>
-        <v>The Ground Grows Soft|Front:nnnenw|Back:</v>
+        <v>The Path|Front:wnwenw|Back:</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="B184" t="s">
         <v>269</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D184" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="24"/>
-        <v>The Path%0Exits are: N S W</v>
+        <v>Thick Bramble%0Exits are: N E</v>
       </c>
       <c r="G184" t="str">
         <f t="shared" si="25"/>
-        <v>The Path -  Room Exits: N S W  Front: wnwenw  Back: None</v>
+        <v>Thick Bramble -  Room Exits: N E  Front: ewnnww  Back: None</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {The Path%0Exits are: N S W} {The Path -  Room Exits: N S W  Front: wnwenw  Back: None}</v>
+        <v>#sub {Thick Bramble%0Exits are: N E} {Thick Bramble -  Room Exits: N E  Front: ewnnww  Back: None}</v>
       </c>
       <c r="I184" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- The Path} {%0 %1- The Path -  Room Exits: N S W  Front: wnwenw  Back: None}</v>
+        <v>#sub {%0 %1- Thick Bramble} {%0 %1- Thick Bramble -  Room Exits: N E  Front: ewnnww  Back: None}</v>
       </c>
       <c r="J184" t="str">
         <f t="shared" si="22"/>
-        <v>The Path|Front:wnwenw|Back:</v>
+        <v>Thick Bramble|Front:ewnnww|Back:</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B185" t="s">
         <v>269</v>
       </c>
       <c r="C185" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D185" t="s">
-        <v>173</v>
+        <v>402</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="24"/>
-        <v>Thick Bramble%0Exits are: N E</v>
+        <v>Thick Underbrush%0Exits are: N S</v>
       </c>
       <c r="G185" t="str">
         <f t="shared" si="25"/>
-        <v>Thick Bramble -  Room Exits: N E  Front: ewnnww  Back: None</v>
+        <v>Thick Underbrush -  Room Exits: N S  Front: nnenw  Back: None</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Thick Bramble%0Exits are: N E} {Thick Bramble -  Room Exits: N E  Front: ewnnww  Back: None}</v>
+        <v>#sub {Thick Underbrush%0Exits are: N S} {Thick Underbrush -  Room Exits: N S  Front: nnenw  Back: None}</v>
       </c>
       <c r="I185" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Thick Bramble} {%0 %1- Thick Bramble -  Room Exits: N E  Front: ewnnww  Back: None}</v>
+        <v>#sub {%0 %1- Thick Underbrush} {%0 %1- Thick Underbrush -  Room Exits: N S  Front: nnenw  Back: None}</v>
       </c>
       <c r="J185" t="str">
         <f t="shared" si="22"/>
-        <v>Thick Bramble|Front:ewnnww|Back:</v>
+        <v>Thick Underbrush|Front:nnenw|Back:</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B186" t="s">
         <v>269</v>
@@ -7952,485 +7952,451 @@
         <v>18</v>
       </c>
       <c r="D186" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="24"/>
-        <v>Thick Underbrush%0Exits are: N S</v>
+        <v>Thick, Dark Forest%0Exits are: N S</v>
       </c>
       <c r="G186" t="str">
         <f t="shared" si="25"/>
-        <v>Thick Underbrush -  Room Exits: N S  Front: nnenw  Back: None</v>
+        <v>Thick, Dark Forest -  Room Exits: N S  Front: sennww  Back: None</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Thick Underbrush%0Exits are: N S} {Thick Underbrush -  Room Exits: N S  Front: nnenw  Back: None}</v>
+        <v>#sub {Thick, Dark Forest%0Exits are: N S} {Thick, Dark Forest -  Room Exits: N S  Front: sennww  Back: None}</v>
       </c>
       <c r="I186" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Thick Underbrush} {%0 %1- Thick Underbrush -  Room Exits: N S  Front: nnenw  Back: None}</v>
+        <v>#sub {%0 %1- Thick, Dark Forest} {%0 %1- Thick, Dark Forest -  Room Exits: N S  Front: sennww  Back: None}</v>
       </c>
       <c r="J186" t="str">
         <f t="shared" si="22"/>
-        <v>Thick Underbrush|Front:nnenw|Back:</v>
+        <v>Thick, Dark Forest|Front:sennww|Back:</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="B187" t="s">
         <v>269</v>
       </c>
       <c r="C187" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>405</v>
+        <v>49</v>
+      </c>
+      <c r="E187" t="s">
+        <v>50</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="24"/>
-        <v>Thick, Dark Forest%0Exits are: N S</v>
+        <v>Thin Trail On Hill%0Exits are: N E S W</v>
       </c>
       <c r="G187" t="str">
         <f t="shared" si="25"/>
-        <v>Thick, Dark Forest -  Room Exits: N S  Front: sennww  Back: None</v>
+        <v>Thin Trail On Hill -  Room Exits: N E S W  Front: w  Back: nneeseeneenesene</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Thick, Dark Forest%0Exits are: N S} {Thick, Dark Forest -  Room Exits: N S  Front: sennww  Back: None}</v>
+        <v>#sub {Thin Trail On Hill%0Exits are: N E S W} {Thin Trail On Hill -  Room Exits: N E S W  Front: w  Back: nneeseeneenesene}</v>
       </c>
       <c r="I187" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Thick, Dark Forest} {%0 %1- Thick, Dark Forest -  Room Exits: N S  Front: sennww  Back: None}</v>
+        <v>#sub {%0 %1- Thin Trail On Hill} {%0 %1- Thin Trail On Hill -  Room Exits: N E S W  Front: w  Back: nneeseeneenesene}</v>
       </c>
       <c r="J187" t="str">
         <f t="shared" si="22"/>
-        <v>Thick, Dark Forest|Front:sennww|Back:</v>
+        <v>Thin Trail On Hill|Front:w|Back:nneeseeneenesene</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
         <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>49</v>
-      </c>
-      <c r="E188" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="24"/>
-        <v>Thin Trail On Hill%0Exits are: N E S W</v>
+        <v>Thundering Darkness%0Exits are: N E S</v>
       </c>
       <c r="G188" t="str">
         <f t="shared" si="25"/>
-        <v>Thin Trail On Hill -  Room Exits: N E S W  Front: w  Back: nneeseeneenesene</v>
+        <v>Thundering Darkness -  Room Exits: N E S  Front: nssnenw  Back: None</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Thin Trail On Hill%0Exits are: N E S W} {Thin Trail On Hill -  Room Exits: N E S W  Front: w  Back: nneeseeneenesene}</v>
+        <v>#sub {Thundering Darkness%0Exits are: N E S} {Thundering Darkness -  Room Exits: N E S  Front: nssnenw  Back: None}</v>
       </c>
       <c r="I188" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Thin Trail On Hill} {%0 %1- Thin Trail On Hill -  Room Exits: N E S W  Front: w  Back: nneeseeneenesene}</v>
+        <v>#sub {%0 %1- Thundering Darkness} {%0 %1- Thundering Darkness -  Room Exits: N E S  Front: nssnenw  Back: None}</v>
       </c>
       <c r="J188" t="str">
         <f t="shared" si="22"/>
-        <v>Thin Trail On Hill|Front:w|Back:nneeseeneenesene</v>
+        <v>Thundering Darkness|Front:nssnenw|Back:</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="B189" t="s">
         <v>269</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="24"/>
-        <v>Thundering Darkness%0Exits are: N E S</v>
+        <v>Timeless Trees%0Exits are: N S</v>
       </c>
       <c r="G189" t="str">
         <f t="shared" si="25"/>
-        <v>Thundering Darkness -  Room Exits: N E S  Front: nssnenw  Back: None</v>
+        <v>Timeless Trees -  Room Exits: N S  Front: snenw  Back: None</v>
       </c>
       <c r="H189" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Thundering Darkness%0Exits are: N E S} {Thundering Darkness -  Room Exits: N E S  Front: nssnenw  Back: None}</v>
+        <v>#sub {Timeless Trees%0Exits are: N S} {Timeless Trees -  Room Exits: N S  Front: snenw  Back: None}</v>
       </c>
       <c r="I189" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Thundering Darkness} {%0 %1- Thundering Darkness -  Room Exits: N E S  Front: nssnenw  Back: None}</v>
+        <v>#sub {%0 %1- Timeless Trees} {%0 %1- Timeless Trees -  Room Exits: N S  Front: snenw  Back: None}</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" si="22"/>
-        <v>Thundering Darkness|Front:nssnenw|Back:</v>
+        <v>Timeless Trees|Front:snenw|Back:</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="B190" t="s">
         <v>269</v>
       </c>
       <c r="C190" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="24"/>
-        <v>Timeless Trees%0Exits are: N S</v>
+        <v>Tortured Land%0Exits are: E S</v>
       </c>
       <c r="G190" t="str">
         <f t="shared" si="25"/>
-        <v>Timeless Trees -  Room Exits: N S  Front: snenw  Back: None</v>
+        <v>Tortured Land -  Room Exits: E S  Front: swesew  Back: None</v>
       </c>
       <c r="H190" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Timeless Trees%0Exits are: N S} {Timeless Trees -  Room Exits: N S  Front: snenw  Back: None}</v>
+        <v>#sub {Tortured Land%0Exits are: E S} {Tortured Land -  Room Exits: E S  Front: swesew  Back: None}</v>
       </c>
       <c r="I190" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Timeless Trees} {%0 %1- Timeless Trees -  Room Exits: N S  Front: snenw  Back: None}</v>
+        <v>#sub {%0 %1- Tortured Land} {%0 %1- Tortured Land -  Room Exits: E S  Front: swesew  Back: None}</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" si="22"/>
-        <v>Timeless Trees|Front:snenw|Back:</v>
+        <v>Tortured Land|Front:swesew|Back:</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>348</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
         <v>269</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="24"/>
-        <v>Tortured Land%0Exits are: E S</v>
+        <v>Twisted Pines%0Exits are: N E S</v>
       </c>
       <c r="G191" t="str">
         <f t="shared" si="25"/>
-        <v>Tortured Land -  Room Exits: E S  Front: swesew  Back: None</v>
+        <v>Twisted Pines -  Room Exits: N E S  Front: sssnesw  Back: None</v>
       </c>
       <c r="H191" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Tortured Land%0Exits are: E S} {Tortured Land -  Room Exits: E S  Front: swesew  Back: None}</v>
+        <v>#sub {Twisted Pines%0Exits are: N E S} {Twisted Pines -  Room Exits: N E S  Front: sssnesw  Back: None}</v>
       </c>
       <c r="I191" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Tortured Land} {%0 %1- Tortured Land -  Room Exits: E S  Front: swesew  Back: None}</v>
+        <v>#sub {%0 %1- Twisted Pines} {%0 %1- Twisted Pines -  Room Exits: N E S  Front: sssnesw  Back: None}</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="22"/>
-        <v>Tortured Land|Front:swesew|Back:</v>
+        <v>Twisted Pines|Front:sssnesw|Back:</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="B192" t="s">
         <v>269</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>243</v>
+        <v>161</v>
+      </c>
+      <c r="E192" t="s">
+        <v>143</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="24"/>
-        <v>Twisted Pines%0Exits are: N E S</v>
+        <v>Twisted Trail%0Exits are: N E W</v>
       </c>
       <c r="G192" t="str">
         <f t="shared" si="25"/>
-        <v>Twisted Pines -  Room Exits: N E S  Front: sssnesw  Back: None</v>
+        <v>Twisted Trail -  Room Exits: N E W  Front: nessnenw  Back: nesene</v>
       </c>
       <c r="H192" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Twisted Pines%0Exits are: N E S} {Twisted Pines -  Room Exits: N E S  Front: sssnesw  Back: None}</v>
+        <v>#sub {Twisted Trail%0Exits are: N E W} {Twisted Trail -  Room Exits: N E W  Front: nessnenw  Back: nesene}</v>
       </c>
       <c r="I192" t="str">
         <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Twisted Pines} {%0 %1- Twisted Pines -  Room Exits: N E S  Front: sssnesw  Back: None}</v>
+        <v>#sub {%0 %1- Twisted Trail} {%0 %1- Twisted Trail -  Room Exits: N E W  Front: nessnenw  Back: nesene}</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="22"/>
-        <v>Twisted Pines|Front:sssnesw|Back:</v>
+        <v>Twisted Trail|Front:nessnenw|Back:nesene</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="B193" t="s">
         <v>269</v>
       </c>
       <c r="C193" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>161</v>
-      </c>
-      <c r="E193" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F193" t="str">
-        <f t="shared" si="24"/>
-        <v>Twisted Trail%0Exits are: N E W</v>
+        <f t="shared" ref="F193:F198" si="28">CONCATENATE(A193,"%0Exits are: ",C193)</f>
+        <v>Unclimbable Cliff%0Exits are: N E S W</v>
       </c>
       <c r="G193" t="str">
-        <f t="shared" si="25"/>
-        <v>Twisted Trail -  Room Exits: N E W  Front: nessnenw  Back: nesene</v>
+        <f t="shared" ref="G193:G198" si="29">CONCATENATE(A193, " -  Room Exits: ", C193, "  Front: ", IF(D193="", "None", D193), "  Back: ", IF(E193="", "None", E193))</f>
+        <v>Unclimbable Cliff -  Room Exits: N E S W  Front: swwww  Back: None</v>
       </c>
       <c r="H193" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Twisted Trail%0Exits are: N E W} {Twisted Trail -  Room Exits: N E W  Front: nessnenw  Back: nesene}</v>
+        <v>#sub {Unclimbable Cliff%0Exits are: N E S W} {Unclimbable Cliff -  Room Exits: N E S W  Front: swwww  Back: None}</v>
       </c>
       <c r="I193" t="str">
-        <f t="shared" si="26"/>
-        <v>#sub {%0 %1- Twisted Trail} {%0 %1- Twisted Trail -  Room Exits: N E W  Front: nessnenw  Back: nesene}</v>
+        <f t="shared" ref="I193:I198" si="30">CONCATENATE("#sub {%0 %1- ",A193,"} {%0 %1- ",G193, "}")</f>
+        <v>#sub {%0 %1- Unclimbable Cliff} {%0 %1- Unclimbable Cliff -  Room Exits: N E S W  Front: swwww  Back: None}</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" si="22"/>
-        <v>Twisted Trail|Front:nessnenw|Back:nesene</v>
+        <v>Unclimbable Cliff|Front:swwww|Back:</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="B194" t="s">
         <v>269</v>
       </c>
       <c r="C194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
-        <v>82</v>
+        <v>259</v>
+      </c>
+      <c r="E194" t="s">
+        <v>406</v>
       </c>
       <c r="F194" t="str">
-        <f t="shared" ref="F194:F199" si="28">CONCATENATE(A194,"%0Exits are: ",C194)</f>
-        <v>Unclimbable Cliff%0Exits are: N E S W</v>
+        <f t="shared" si="28"/>
+        <v>Unkempt Forest%0Exits are: N S W</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G199" si="29">CONCATENATE(A194, " -  Room Exits: ", C194, "  Front: ", IF(D194="", "None", D194), "  Back: ", IF(E194="", "None", E194))</f>
-        <v>Unclimbable Cliff -  Room Exits: N E S W  Front: swwww  Back: None</v>
+        <f t="shared" si="29"/>
+        <v>Unkempt Forest -  Room Exits: N S W  Front: nw  Back: nnneeseeneenesene</v>
       </c>
       <c r="H194" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Unclimbable Cliff%0Exits are: N E S W} {Unclimbable Cliff -  Room Exits: N E S W  Front: swwww  Back: None}</v>
+        <v>#sub {Unkempt Forest%0Exits are: N S W} {Unkempt Forest -  Room Exits: N S W  Front: nw  Back: nnneeseeneenesene}</v>
       </c>
       <c r="I194" t="str">
-        <f t="shared" ref="I194:I199" si="30">CONCATENATE("#sub {%0 %1- ",A194,"} {%0 %1- ",G194, "}")</f>
-        <v>#sub {%0 %1- Unclimbable Cliff} {%0 %1- Unclimbable Cliff -  Room Exits: N E S W  Front: swwww  Back: None}</v>
+        <f t="shared" si="30"/>
+        <v>#sub {%0 %1- Unkempt Forest} {%0 %1- Unkempt Forest -  Room Exits: N S W  Front: nw  Back: nnneeseeneenesene}</v>
       </c>
       <c r="J194" t="str">
-        <f t="shared" si="22"/>
-        <v>Unclimbable Cliff|Front:swwww|Back:</v>
+        <f t="shared" ref="J194:J198" si="31">A194&amp;"|Front:"&amp;D194&amp;"|Back:"&amp;E194</f>
+        <v>Unkempt Forest|Front:nw|Back:nnneeseeneenesene</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="B195" t="s">
         <v>269</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
-        <v>259</v>
+        <v>136</v>
       </c>
       <c r="E195" t="s">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" si="28"/>
-        <v>Unkempt Forest%0Exits are: N S W</v>
+        <v>Vigilent Forest%0Exits are: N E W</v>
       </c>
       <c r="G195" t="str">
         <f t="shared" si="29"/>
-        <v>Unkempt Forest -  Room Exits: N S W  Front: nw  Back: nnneeseeneenesene</v>
+        <v>Vigilent Forest -  Room Exits: N E W  Front: wennw  Back: neenesene</v>
       </c>
       <c r="H195" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Unkempt Forest%0Exits are: N S W} {Unkempt Forest -  Room Exits: N S W  Front: nw  Back: nnneeseeneenesene}</v>
+        <v>#sub {Vigilent Forest%0Exits are: N E W} {Vigilent Forest -  Room Exits: N E W  Front: wennw  Back: neenesene}</v>
       </c>
       <c r="I195" t="str">
         <f t="shared" si="30"/>
-        <v>#sub {%0 %1- Unkempt Forest} {%0 %1- Unkempt Forest -  Room Exits: N S W  Front: nw  Back: nnneeseeneenesene}</v>
+        <v>#sub {%0 %1- Vigilent Forest} {%0 %1- Vigilent Forest -  Room Exits: N E W  Front: wennw  Back: neenesene}</v>
       </c>
       <c r="J195" t="str">
-        <f t="shared" ref="J195:J199" si="31">A195&amp;"|Front:"&amp;D195&amp;"|Back:"&amp;E195</f>
-        <v>Unkempt Forest|Front:nw|Back:nnneeseeneenesene</v>
+        <f t="shared" si="31"/>
+        <v>Vigilent Forest|Front:wennw|Back:neenesene</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>134</v>
+        <v>407</v>
       </c>
       <c r="B196" t="s">
         <v>269</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>136</v>
-      </c>
-      <c r="E196" t="s">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="28"/>
-        <v>Vigilent Forest%0Exits are: N E W</v>
+        <v>Weaving Mists%0Exits are: E S W</v>
       </c>
       <c r="G196" t="str">
         <f t="shared" si="29"/>
-        <v>Vigilent Forest -  Room Exits: N E W  Front: wennw  Back: neenesene</v>
+        <v>Weaving Mists -  Room Exits: E S W  Front: nsssnesw  Back: None</v>
       </c>
       <c r="H196" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Vigilent Forest%0Exits are: N E W} {Vigilent Forest -  Room Exits: N E W  Front: wennw  Back: neenesene}</v>
+        <v>#sub {Weaving Mists%0Exits are: E S W} {Weaving Mists -  Room Exits: E S W  Front: nsssnesw  Back: None}</v>
       </c>
       <c r="I196" t="str">
         <f t="shared" si="30"/>
-        <v>#sub {%0 %1- Vigilent Forest} {%0 %1- Vigilent Forest -  Room Exits: N E W  Front: wennw  Back: neenesene}</v>
+        <v>#sub {%0 %1- Weaving Mists} {%0 %1- Weaving Mists -  Room Exits: E S W  Front: nsssnesw  Back: None}</v>
       </c>
       <c r="J196" t="str">
         <f t="shared" si="31"/>
-        <v>Vigilent Forest|Front:wennw|Back:neenesene</v>
+        <v>Weaving Mists|Front:nsssnesw|Back:</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>407</v>
+        <v>150</v>
       </c>
       <c r="B197" t="s">
         <v>269</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D197" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="28"/>
-        <v>Weaving Mists%0Exits are: E S W</v>
+        <v>West of the Thicket%0Exits are: N W</v>
       </c>
       <c r="G197" t="str">
         <f t="shared" si="29"/>
-        <v>Weaving Mists -  Room Exits: E S W  Front: nsssnesw  Back: None</v>
+        <v>West of the Thicket -  Room Exits: N W  Front: nswesew  Back: None</v>
       </c>
       <c r="H197" t="str">
         <f t="shared" si="27"/>
-        <v>#sub {Weaving Mists%0Exits are: E S W} {Weaving Mists -  Room Exits: E S W  Front: nsssnesw  Back: None}</v>
+        <v>#sub {West of the Thicket%0Exits are: N W} {West of the Thicket -  Room Exits: N W  Front: nswesew  Back: None}</v>
       </c>
       <c r="I197" t="str">
         <f t="shared" si="30"/>
-        <v>#sub {%0 %1- Weaving Mists} {%0 %1- Weaving Mists -  Room Exits: E S W  Front: nsssnesw  Back: None}</v>
+        <v>#sub {%0 %1- West of the Thicket} {%0 %1- West of the Thicket -  Room Exits: N W  Front: nswesew  Back: None}</v>
       </c>
       <c r="J197" t="str">
         <f t="shared" si="31"/>
-        <v>Weaving Mists|Front:nsssnesw|Back:</v>
+        <v>West of the Thicket|Front:nswesew|Back:</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
         <v>269</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="28"/>
-        <v>West of the Thicket%0Exits are: N W</v>
+        <v>Whispering Pines%0Exits are: S W</v>
       </c>
       <c r="G198" t="str">
         <f t="shared" si="29"/>
-        <v>West of the Thicket -  Room Exits: N W  Front: nswesew  Back: None</v>
+        <v>Whispering Pines -  Room Exits: S W  Front: wewnesew  Back: None</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="27"/>
-        <v>#sub {West of the Thicket%0Exits are: N W} {West of the Thicket -  Room Exits: N W  Front: nswesew  Back: None}</v>
+        <f t="shared" ref="H198" si="32">CONCATENATE("#sub {", F198, "} {", G198, "}")</f>
+        <v>#sub {Whispering Pines%0Exits are: S W} {Whispering Pines -  Room Exits: S W  Front: wewnesew  Back: None}</v>
       </c>
       <c r="I198" t="str">
         <f t="shared" si="30"/>
-        <v>#sub {%0 %1- West of the Thicket} {%0 %1- West of the Thicket -  Room Exits: N W  Front: nswesew  Back: None}</v>
+        <v>#sub {%0 %1- Whispering Pines} {%0 %1- Whispering Pines -  Room Exits: S W  Front: wewnesew  Back: None}</v>
       </c>
       <c r="J198" t="str">
         <f t="shared" si="31"/>
-        <v>West of the Thicket|Front:nswesew|Back:</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" t="s">
-        <v>269</v>
-      </c>
-      <c r="C199" t="s">
-        <v>22</v>
-      </c>
-      <c r="D199" t="s">
-        <v>202</v>
-      </c>
-      <c r="F199" t="str">
-        <f t="shared" si="28"/>
-        <v>Whispering Pines%0Exits are: S W</v>
-      </c>
-      <c r="G199" t="str">
-        <f t="shared" si="29"/>
-        <v>Whispering Pines -  Room Exits: S W  Front: wewnesew  Back: None</v>
-      </c>
-      <c r="H199" t="str">
-        <f t="shared" ref="H199" si="32">CONCATENATE("#sub {", F199, "} {", G199, "}")</f>
-        <v>#sub {Whispering Pines%0Exits are: S W} {Whispering Pines -  Room Exits: S W  Front: wewnesew  Back: None}</v>
-      </c>
-      <c r="I199" t="str">
-        <f t="shared" si="30"/>
-        <v>#sub {%0 %1- Whispering Pines} {%0 %1- Whispering Pines -  Room Exits: S W  Front: wewnesew  Back: None}</v>
-      </c>
-      <c r="J199" t="str">
-        <f t="shared" si="31"/>
         <v>Whispering Pines|Front:wewnesew|Back:</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>404</v>
       </c>
     </row>
